--- a/data/静水力计算书.xlsx
+++ b/data/静水力计算书.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\本科课程\船舶设计原理\大作业\船舶设计原理上学期部分\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\本科课程\船舶设计原理\大作业\船舶设计原理上学期部分\code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0A9B15-A6A8-4720-84D2-2D32AF719451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2087837A-18FB-472F-8027-3A3AE2855032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,13 +367,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -656,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1006,900 +1005,850 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>206.607</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>31.579000000000001</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34">
         <v>4867.3999999999996</v>
       </c>
       <c r="F34" s="2">
         <v>4989.1000000000004</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34">
         <v>116.294</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34">
         <v>0.51300000000000001</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34">
         <v>0.71050000000000002</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34">
         <v>30.629000000000001</v>
       </c>
       <c r="K34" s="2">
         <v>0.96199999999999997</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34">
         <v>5161.5</v>
       </c>
       <c r="M34" s="2">
         <v>0.79110000000000003</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34">
         <v>116.01</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34">
         <v>0.73860000000000003</v>
       </c>
       <c r="P34" s="2">
         <v>5286.8</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34">
         <v>75.034999999999997</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R34">
         <v>2584.5</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>209.971</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>31.844999999999999</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35">
         <v>10184</v>
       </c>
       <c r="F35" s="2">
         <v>10439</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35">
         <v>116.02200000000001</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35">
         <v>1.0309999999999999</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35">
         <v>0.74329999999999996</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35">
         <v>62.406999999999996</v>
       </c>
       <c r="K35" s="2">
         <v>0.98</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35">
         <v>5419</v>
       </c>
       <c r="M35" s="2">
         <v>0.81040000000000001</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35">
         <v>115.55</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35">
         <v>0.75839999999999996</v>
       </c>
       <c r="P35" s="2">
         <v>5818.5</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35">
         <v>39.784999999999997</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35">
         <v>1382.1</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36">
         <v>3</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>211.86699999999999</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>31.844999999999999</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <v>15693</v>
       </c>
       <c r="F36" s="2">
         <v>16085</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36">
         <v>115.791</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36">
         <v>1.5469999999999999</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36">
         <v>0.76349999999999996</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36">
         <v>94.248000000000005</v>
       </c>
       <c r="K36" s="2">
         <v>0.98670000000000002</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36">
         <v>5563.6</v>
       </c>
       <c r="M36" s="2">
         <v>0.8246</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36">
         <v>115.19499999999999</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36">
         <v>0.77380000000000004</v>
       </c>
       <c r="P36" s="2">
         <v>6301.6</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36">
         <v>27.745000000000001</v>
       </c>
-      <c r="R36" s="3">
+      <c r="R36">
         <v>959.27</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>212.13200000000001</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>31.841000000000001</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37">
         <v>21318</v>
       </c>
       <c r="F37" s="2">
         <v>21851</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37">
         <v>115.589</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37">
         <v>2.0630000000000002</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37">
         <v>0.77790000000000004</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37">
         <v>126.08799999999999</v>
       </c>
       <c r="K37" s="2">
         <v>0.99</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37">
         <v>5658.2</v>
       </c>
       <c r="M37" s="2">
         <v>0.8377</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37">
         <v>114.851</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37">
         <v>0.78580000000000005</v>
       </c>
       <c r="P37" s="2">
         <v>6768</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37">
         <v>21.882000000000001</v>
       </c>
-      <c r="R37" s="3">
+      <c r="R37">
         <v>736.79</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38">
         <v>5</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>211.26</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>31.841000000000001</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38">
         <v>27026</v>
       </c>
       <c r="F38" s="2">
         <v>27702</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38">
         <v>115.38500000000001</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38">
         <v>2.5779999999999998</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38">
         <v>0.78900000000000003</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38">
         <v>157.929</v>
       </c>
       <c r="K38" s="2">
         <v>0.99199999999999999</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38">
         <v>5732</v>
       </c>
       <c r="M38" s="2">
         <v>0.85209999999999997</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38">
         <v>114.345</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38">
         <v>0.79530000000000001</v>
       </c>
       <c r="P38" s="2">
         <v>7227</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38">
         <v>18.533000000000001</v>
       </c>
-      <c r="R38" s="3">
+      <c r="R38">
         <v>601.28</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39">
         <v>6</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>211.09299999999999</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>31.841000000000001</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39">
         <v>32805</v>
       </c>
       <c r="F39" s="2">
         <v>33625</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39">
         <v>115.13500000000001</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39">
         <v>3.093</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39">
         <v>0.79810000000000003</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39">
         <v>189.77</v>
       </c>
       <c r="K39" s="2">
         <v>0.99339999999999995</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39">
         <v>5803</v>
       </c>
       <c r="M39" s="2">
         <v>0.86339999999999995</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39">
         <v>113.55500000000001</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39">
         <v>0.8034</v>
       </c>
       <c r="P39" s="2">
         <v>7686.2</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="Q39">
         <v>16.47</v>
       </c>
-      <c r="R39" s="3">
+      <c r="R39">
         <v>512.75</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40">
         <v>7</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>211.482</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>31.841000000000001</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40">
         <v>38658</v>
       </c>
       <c r="F40" s="2">
         <v>39624</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40">
         <v>114.818</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40">
         <v>3.609</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40">
         <v>0.80610000000000004</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40">
         <v>221.61099999999999</v>
       </c>
       <c r="K40" s="2">
         <v>0.99429999999999996</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40">
         <v>5879.6</v>
       </c>
       <c r="M40" s="2">
         <v>0.87319999999999998</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40">
         <v>112.482</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40">
         <v>0.81069999999999998</v>
       </c>
       <c r="P40" s="2">
         <v>8152.4</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q40">
         <v>15.159000000000001</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R40">
         <v>452.08</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41">
         <v>8</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>0</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>212.999</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>31.841000000000001</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41">
         <v>44592</v>
       </c>
       <c r="F41" s="2">
         <v>45707</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41">
         <v>114.419</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41">
         <v>4.1269999999999998</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41">
         <v>0.81359999999999999</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41">
         <v>253.452</v>
       </c>
       <c r="K41" s="2">
         <v>0.995</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41">
         <v>5964.7</v>
       </c>
       <c r="M41" s="2">
         <v>0.87949999999999995</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41">
         <v>111.127</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41">
         <v>0.81769999999999998</v>
       </c>
       <c r="P41" s="2">
         <v>8631.1</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41">
         <v>14.32</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41">
         <v>409.15</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42">
         <v>9</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>215.518</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>31.841000000000001</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42">
         <v>50612</v>
       </c>
       <c r="F42" s="2">
         <v>51878</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42">
         <v>113.935</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42">
         <v>4.6470000000000002</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42">
         <v>0.82079999999999997</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42">
         <v>285.29300000000001</v>
       </c>
       <c r="K42" s="2">
         <v>0.99560000000000004</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42">
         <v>6048.9</v>
       </c>
       <c r="M42" s="2">
         <v>0.88149999999999995</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42">
         <v>109.59</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42">
         <v>0.82450000000000001</v>
       </c>
       <c r="P42" s="2">
         <v>9119.9</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42">
         <v>13.781000000000001</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42">
         <v>376.18</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43">
         <v>10</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>217.357</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>31.841000000000001</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43">
         <v>56709</v>
       </c>
       <c r="F43" s="2">
         <v>58127</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43">
         <v>113.386</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43">
         <v>5.1689999999999996</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43">
         <v>0.82769999999999999</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43">
         <v>317.13400000000001</v>
       </c>
       <c r="K43" s="2">
         <v>0.996</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43">
         <v>6118.3</v>
       </c>
       <c r="M43" s="2">
         <v>0.88400000000000001</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43">
         <v>108.07599999999999</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43">
         <v>0.83109999999999995</v>
       </c>
       <c r="P43" s="2">
         <v>9608.7999999999993</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43">
         <v>13.446</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43">
         <v>347.52</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44">
         <v>11</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>0</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>218.77699999999999</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>31.841000000000001</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44">
         <v>62872</v>
       </c>
       <c r="F44" s="2">
         <v>64444</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44">
         <v>112.795</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44">
         <v>5.6920000000000002</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44">
         <v>0.83430000000000004</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44">
         <v>348.97500000000002</v>
       </c>
       <c r="K44" s="2">
         <v>0.99639999999999995</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44">
         <v>6182.4</v>
       </c>
       <c r="M44" s="2">
         <v>0.88749999999999996</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44">
         <v>106.676</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44">
         <v>0.83730000000000004</v>
       </c>
       <c r="P44" s="2">
         <v>10097</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44">
         <v>13.260999999999999</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44">
         <v>323.69</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45">
         <v>12</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>0</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>219.136</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45">
         <v>31.841000000000001</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45">
         <v>69100</v>
       </c>
       <c r="F45" s="2">
         <v>70828</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45">
         <v>112.19</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45">
         <v>6.2149999999999999</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45">
         <v>0.84050000000000002</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45">
         <v>380.81599999999997</v>
       </c>
       <c r="K45" s="2">
         <v>0.99670000000000003</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45">
         <v>6246.2</v>
       </c>
       <c r="M45" s="2">
         <v>0.8952</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45">
         <v>105.587</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45">
         <v>0.84330000000000005</v>
       </c>
       <c r="P45" s="2">
         <v>10580</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45">
         <v>13.193</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45">
         <v>304.14</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46">
         <v>13</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>219.10900000000001</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>31.841000000000001</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46">
         <v>75389</v>
       </c>
       <c r="F46" s="2">
         <v>77274</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46">
         <v>111.61</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46">
         <v>6.74</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46">
         <v>0.84650000000000003</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46">
         <v>412.65800000000002</v>
       </c>
       <c r="K46" s="2">
         <v>0.99690000000000001</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46">
         <v>6305</v>
       </c>
       <c r="M46" s="2">
         <v>0.90369999999999995</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46">
         <v>104.905</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46">
         <v>0.84909999999999997</v>
       </c>
       <c r="P46" s="2">
         <v>11057</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46">
         <v>13.218999999999999</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46">
         <v>287.01</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47">
         <v>14</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>0</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>219.11600000000001</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47">
         <v>31.841000000000001</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47">
         <v>81735</v>
       </c>
       <c r="F47" s="2">
         <v>83778</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47">
         <v>111.071</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47">
         <v>7.2640000000000002</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47">
         <v>0.85219999999999996</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47">
         <v>444.49799999999999</v>
       </c>
       <c r="K47" s="2">
         <v>0.99719999999999998</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47">
         <v>6359.5</v>
       </c>
       <c r="M47" s="2">
         <v>0.91149999999999998</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47">
         <v>104.496</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47">
         <v>0.85460000000000003</v>
       </c>
       <c r="P47" s="2">
         <v>11531</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47">
         <v>13.317</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47">
         <v>271.95999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48">
         <v>15</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>0</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <v>219.126</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>31.841000000000001</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48">
         <v>88134</v>
       </c>
       <c r="F48" s="2">
         <v>90337</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48">
         <v>110.584</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48">
         <v>7.79</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48">
         <v>0.85760000000000003</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48">
         <v>476.33699999999999</v>
       </c>
       <c r="K48" s="2">
         <v>0.99739999999999995</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48">
         <v>6411.1</v>
       </c>
       <c r="M48" s="2">
         <v>0.91890000000000005</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48">
         <v>104.27200000000001</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48">
         <v>0.8599</v>
       </c>
       <c r="P48" s="2">
         <v>12005</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48">
         <v>13.474</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48">
         <v>258.73</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>15</v>
-      </c>
-      <c r="B49" s="3">
-        <v>0</v>
-      </c>
-      <c r="C49" s="3">
-        <v>219.126</v>
-      </c>
-      <c r="D49" s="3">
-        <v>31.841000000000001</v>
-      </c>
-      <c r="E49" s="3">
-        <v>88134</v>
-      </c>
-      <c r="F49" s="2">
-        <v>90337</v>
-      </c>
-      <c r="G49" s="3">
-        <v>110.584</v>
-      </c>
-      <c r="H49" s="3">
-        <v>7.79</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0.85760000000000003</v>
-      </c>
-      <c r="J49" s="3">
-        <v>476.33699999999999</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="L49" s="3">
-        <v>6411.1</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0.91890000000000005</v>
-      </c>
-      <c r="N49" s="3">
-        <v>104.27200000000001</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0.8599</v>
-      </c>
-      <c r="P49" s="2">
-        <v>12005</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>13.474</v>
-      </c>
-      <c r="R49" s="3">
-        <v>258.73</v>
-      </c>
+    <row r="49" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="P49" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
